--- a/doc/2023年下期/【画面設計】年月週管理参照ダイアログ（NentsukiShuKanriRefDialog.vue).xlsx
+++ b/doc/2023年下期/【画面設計】年月週管理参照ダイアログ（NentsukiShuKanriRefDialog.vue).xlsx
@@ -2941,7 +2941,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
+    <col customWidth="1" min="2" max="2" width="29.43"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
     <col customWidth="1" min="4" max="4" width="60.57"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
@@ -4689,7 +4689,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
     </row>
-    <row r="60" ht="39.0" customHeight="1">
+    <row r="60" ht="21.75" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="49" t="s">
         <v>46</v>
@@ -4785,7 +4785,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" ht="24.75" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="55" t="s">
         <v>52</v>
@@ -31552,8 +31552,8 @@
     <mergeCell ref="B44:H46"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="I85:I86"/>
     <mergeCell ref="J85:J86"/>
     <mergeCell ref="K85:K86"/>
@@ -31584,7 +31584,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="25.29"/>
+    <col customWidth="1" min="3" max="3" width="29.29"/>
     <col customWidth="1" min="4" max="4" width="35.43"/>
     <col customWidth="1" min="5" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="11.57"/>
@@ -31903,7 +31903,7 @@
       <c r="Y9" s="99"/>
       <c r="Z9" s="99"/>
     </row>
-    <row r="10" ht="51.75" customHeight="1">
+    <row r="10" ht="36.0" customHeight="1">
       <c r="A10" s="99"/>
       <c r="B10" s="100">
         <v>5.0</v>
@@ -59958,8 +59958,8 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
